--- a/interactive-data-viz-excel-demo.xlsx
+++ b/interactive-data-viz-excel-demo.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737C75A4-76EC-4541-82D5-618ECA558E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD26536-04F5-4328-8A72-69FF962BA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{4163F48C-CA1B-452D-BE4E-56982CA1FE29}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="setup" sheetId="4" r:id="rId2"/>
-    <sheet name="filter-dropdown" sheetId="3" r:id="rId3"/>
-    <sheet name="choose-branches" sheetId="5" r:id="rId4"/>
-    <sheet name="top-n" sheetId="2" r:id="rId5"/>
+    <sheet name="filter-dropdown" sheetId="3" r:id="rId2"/>
+    <sheet name="choose-branches" sheetId="5" r:id="rId3"/>
+    <sheet name="top-n" sheetId="2" r:id="rId4"/>
+    <sheet name="setup" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -135,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -169,7 +170,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -474,6 +475,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deposits</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by selected branches</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -641,20 +672,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -698,37 +715,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -780,6 +766,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'top-n'!$E$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Top 5 branches by total deposits</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -802,9 +829,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'top-n'!$A$4:$A$10</c:f>
+              <c:f>'top-n'!$A$4:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Downtown</c:v>
                 </c:pt>
@@ -820,21 +847,15 @@
                 <c:pt idx="4">
                   <c:v>Uptown</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Parkview</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Hilltop</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'top-n'!$C$4:$C$10</c:f>
+              <c:f>'top-n'!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>120000000</c:v>
                 </c:pt>
@@ -849,12 +870,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,20 +951,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2704,16 +2705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526256</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883444</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492918</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354806</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2746,15 +2747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>621505</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:colOff>588167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>588168</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:colOff>554830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3271,47 +3272,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82FD24-2825-403F-89B4-0F5C2D1514B8}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:A6">_xlfn.SORTBY(_xlfn.UNIQUE(deposits[Region]), 1)</f>
-        <v>East</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="str">
-        <v>West</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="str">
-        <v>North</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="str">
-        <v>South</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128B4C54-7FB9-43A2-8457-2E34E44156E7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3395,12 +3355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FDD29B-DFA3-4831-8247-17411297FCF6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3583,9 +3543,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F06CFD-2589-4471-AC5B-40EA0E667C4E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3600,29 +3560,23 @@
     <col min="5" max="5" width="12.26171875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:C3">deposits[#Headers]</f>
-        <v>Branch Name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Region</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>Total Deposits ($)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1" t="str">
+        <f>_xlfn.CONCAT("Top ", B1, " branches by total deposits")</f>
+        <v>Top 5 branches by total deposits</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4:C10">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(deposits[], deposits[Total Deposits ($)] &gt;= LARGE(deposits[Total Deposits ($)], B1)), 3, -1)</f>
+        <f t="array" ref="A4:C8">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(deposits[], deposits[Total Deposits ($)] &gt;= LARGE(deposits[Total Deposits ($)], B1)), 3, -1)</f>
         <v>Downtown</v>
       </c>
       <c r="B4" t="str">
@@ -3632,7 +3586,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <v>Midtown</v>
       </c>
@@ -3643,7 +3597,7 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <v>Seaside</v>
       </c>
@@ -3654,7 +3608,7 @@
         <v>105000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <v>Lakeside</v>
       </c>
@@ -3665,7 +3619,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <v>Uptown</v>
       </c>
@@ -3674,32 +3628,54 @@
       </c>
       <c r="C8" s="1">
         <v>95000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="str">
-        <v>Parkview</v>
-      </c>
-      <c r="B9" t="str">
-        <v>North</v>
-      </c>
-      <c r="C9" s="1">
-        <v>92000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="str">
-        <v>Hilltop</v>
-      </c>
-      <c r="B10" t="str">
-        <v>West</v>
-      </c>
-      <c r="C10" s="1">
-        <v>90000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD82FD24-2825-403F-89B4-0F5C2D1514B8}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:A6">_xlfn.SORTBY(_xlfn.UNIQUE(deposits[Region]), 1)</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="str">
+        <v>West</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="str">
+        <v>North</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="str">
+        <v>South</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>